--- a/Andrew-annotations/AMSWA_Q4_2016.xlsx
+++ b/Andrew-annotations/AMSWA_Q4_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9822477F-046B-401F-9AFA-D2642BF038F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FD3E3-38E2-4907-8966-7CC5A3CF6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -696,22 +696,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
